--- a/data/trans_camb/P16A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>8.246347940425755</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>16.69705862965741</v>
+        <v>16.6970586296574</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.417979486348079</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5182180820826977</v>
+        <v>-0.2272863229830237</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4269444568874124</v>
+        <v>-0.4782905623165046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.578492576944676</v>
+        <v>5.517697650775873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.434189386143385</v>
+        <v>4.285248498896201</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.690337683707579</v>
+        <v>4.951986769474358</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.2420363505295</v>
+        <v>13.90480018778626</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.157606029157038</v>
+        <v>3.326564184816334</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.320877036222161</v>
+        <v>3.166054157991983</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.33358827708115</v>
+        <v>11.24706354379496</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.166136296508099</v>
+        <v>5.175515631813364</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.297661921538201</v>
+        <v>5.139019061381226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.09409276959786</v>
+        <v>12.10749782419631</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.25356992995209</v>
+        <v>10.52251244529955</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.93858222622901</v>
+        <v>12.02206501368888</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.77789185707372</v>
+        <v>20.04511735121541</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.720158700410047</v>
+        <v>7.827621153233773</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.101436250545465</v>
+        <v>8.097495204164</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.13528290209237</v>
+        <v>16.3062437824978</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4746475448041635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9610579060297185</v>
+        <v>0.9610579060297182</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3990761789612171</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0589586147380199</v>
+        <v>-0.02653410502447504</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03997882977649118</v>
+        <v>-0.04580583356418028</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5527513460728957</v>
+        <v>0.5313381282293226</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2413968027315204</v>
+        <v>0.220461017451409</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2496884144521241</v>
+        <v>0.2693549869684962</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7066511065959454</v>
+        <v>0.7053331982112814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2155006048078853</v>
+        <v>0.2254459719727315</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2282070198642051</v>
+        <v>0.2252051065878044</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.7763543604265681</v>
+        <v>0.7707807128694316</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6723114735009346</v>
+        <v>0.6776781905231667</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7140641545679075</v>
+        <v>0.6877371183465191</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.58424536343612</v>
+        <v>1.5436114959658</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6601535398889506</v>
+        <v>0.6593553920152001</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7533903770687527</v>
+        <v>0.7573377444150333</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.243135306913915</v>
+        <v>1.253747510791299</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6099947349034657</v>
+        <v>0.6195919705141346</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.639813922028489</v>
+        <v>0.6593048668461668</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.283522656088872</v>
+        <v>1.313922344378901</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>4.966194710522859</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.646752308825947</v>
+        <v>6.646752308825945</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.649978291354878</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5949133543632943</v>
+        <v>0.6290277109174599</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9974649947069582</v>
+        <v>0.9749660006741958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.155483825268779</v>
+        <v>3.05953833831513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.636941784357082</v>
+        <v>1.5028463635093</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.007791150209725</v>
+        <v>3.014733011082816</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.701963728867502</v>
+        <v>4.8344620210027</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.488579602859198</v>
+        <v>1.416672017244028</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.390241303048348</v>
+        <v>2.280275679467167</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.433904629367317</v>
+        <v>4.326260593455142</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.25870464609011</v>
+        <v>3.240182220568034</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.508696607473762</v>
+        <v>3.485469165466839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.970972494303573</v>
+        <v>5.85622288235866</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.683183565780123</v>
+        <v>5.585162704567023</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.923161321549602</v>
+        <v>7.174837192444364</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.48777661337685</v>
+        <v>8.428936047732119</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.956956668220184</v>
+        <v>3.870937521947337</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.840161525338705</v>
+        <v>4.769386818785494</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.739764691325922</v>
+        <v>6.691760924352794</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.6622416474285866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8863438619754045</v>
+        <v>0.8863438619754042</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5148386315905711</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1626620854479056</v>
+        <v>0.1602534656773194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2792548360664453</v>
+        <v>0.2661825537466074</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8860183706897834</v>
+        <v>0.8317548268877658</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1998770712453048</v>
+        <v>0.1723657861443665</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3386155631262386</v>
+        <v>0.3313440911600553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5335940642312016</v>
+        <v>0.5628452152119108</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.263504509116757</v>
+        <v>0.235824001475974</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.414234901259257</v>
+        <v>0.3822310313133153</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7557176606949569</v>
+        <v>0.7377746032118448</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.326832706217306</v>
+        <v>1.33953066740422</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.510492397260441</v>
+        <v>1.477207274542628</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.629030479759237</v>
+        <v>2.465570903791179</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8694340894298818</v>
+        <v>0.8472053548981718</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.032914932545549</v>
+        <v>1.108450929328328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.319765449183088</v>
+        <v>1.318642505524641</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8721973697973758</v>
+        <v>0.8430374204426431</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.08442452931426</v>
+        <v>1.010769122981769</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.512233367953377</v>
+        <v>1.478039303375193</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.09562281435261666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.934561152792776</v>
+        <v>1.934561152792774</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.12368461230646</v>
@@ -1083,7 +1083,7 @@
         <v>-0.08798682061242485</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.643775870833124</v>
+        <v>2.643775870833123</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5233892814218571</v>
@@ -1092,7 +1092,7 @@
         <v>0.09070144126596541</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.398251027709979</v>
+        <v>2.398251027709978</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.681949371573924</v>
+        <v>-1.461084534001865</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.230114761555295</v>
+        <v>-2.149787278595831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5507962855397568</v>
+        <v>-0.7213262586645859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.235410850117779</v>
+        <v>-3.579279061504521</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.189950918989516</v>
+        <v>-3.226254144117334</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1926653556768722</v>
+        <v>-0.2502365973195728</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.483891453586777</v>
+        <v>-1.468438866849114</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.88791888632896</v>
+        <v>-1.60648690742535</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5376677518778284</v>
+        <v>0.4616524098336768</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.921954092816846</v>
+        <v>4.237247397912765</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.412290466077506</v>
+        <v>2.77610742017192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.524151344306766</v>
+        <v>4.22152766819486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.336180300076934</v>
+        <v>3.125307664886266</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.933028537415857</v>
+        <v>3.064352438273859</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.331351250095411</v>
+        <v>5.392499311758092</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.053744286684637</v>
+        <v>2.965647435488449</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.014887215982597</v>
+        <v>2.164634220452658</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.073536805591006</v>
+        <v>4.057273447059798</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02502346869233305</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5062539809987202</v>
+        <v>0.5062539809987197</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.0201357485897203</v>
@@ -1188,7 +1188,7 @@
         <v>-0.01432417878038716</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4304044397274165</v>
+        <v>0.4304044397274163</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1068741925936454</v>
@@ -1197,7 +1197,7 @@
         <v>0.01852090527350105</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4897141598450023</v>
+        <v>0.4897141598450021</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3937427573572926</v>
+        <v>-0.320795404651347</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4742275934170396</v>
+        <v>-0.4597024120873082</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1240003764903912</v>
+        <v>-0.1336401287622795</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.451532696628154</v>
+        <v>-0.4567801417592504</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4261623530146257</v>
+        <v>-0.4064322709433998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03152059309513455</v>
+        <v>-0.04822100521564597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2731075333617212</v>
+        <v>-0.2720579009564923</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3224865320242808</v>
+        <v>-0.2827782841587662</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09460374626284992</v>
+        <v>0.06877890292524307</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.295005835064938</v>
+        <v>1.559084859080033</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8751566910976828</v>
+        <v>1.123752132179638</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.625244077730301</v>
+        <v>1.692757397392982</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7155661738959874</v>
+        <v>0.6715580706111441</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6762594586353082</v>
+        <v>0.6447622663898592</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.195788024794557</v>
+        <v>1.199019371283564</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7804726172767624</v>
+        <v>0.7600448638658757</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5181289525826978</v>
+        <v>0.5349974088643693</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.033607306087474</v>
+        <v>1.010740783971526</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.351617838842117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.757424769126964</v>
+        <v>3.757424769126967</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.428319890387085</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5051039388466393</v>
+        <v>0.5979852602780767</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3134515455108516</v>
+        <v>0.2563791176636029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.57369463682162</v>
+        <v>2.631725152468431</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.883855354824548</v>
+        <v>2.739240451747575</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.364911085622183</v>
+        <v>2.219169154883412</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.73285423183088</v>
+        <v>4.986246809765942</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.040372183455625</v>
+        <v>2.091336937457672</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.600866637520957</v>
+        <v>1.724929295905662</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.155411460180028</v>
+        <v>4.092296961062079</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.986321207304971</v>
+        <v>3.012120923684597</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.536746655898812</v>
+        <v>2.511005954645819</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.96054161864707</v>
+        <v>4.974402066314922</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.165556044806262</v>
+        <v>5.949347285408884</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.571839717213437</v>
+        <v>5.479600064073516</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.717745081159129</v>
+        <v>7.981092733733123</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.173117185290475</v>
+        <v>4.080190713768818</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.706875008920819</v>
+        <v>3.808190972095574</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.048485987824382</v>
+        <v>6.135303643077596</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2750272297341754</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7645608806649329</v>
+        <v>0.7645608806649334</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3971306334594966</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09793228371736015</v>
+        <v>0.09635211520887883</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04987963991423362</v>
+        <v>0.05039992951303628</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4525825086726897</v>
+        <v>0.4722789579397013</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2379999948888565</v>
+        <v>0.2301211752033865</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2041307704632793</v>
+        <v>0.1803738482425133</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3948318973338187</v>
+        <v>0.4153370530413493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.232174704606197</v>
+        <v>0.2458662383959659</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1924066460952658</v>
+        <v>0.2060239976164197</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4836876761103812</v>
+        <v>0.4718641852946975</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6705499166000116</v>
+        <v>0.6660480980414323</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5772444249682416</v>
+        <v>0.5823074220250409</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.104068974356941</v>
+        <v>1.119741041113979</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.586045834036887</v>
+        <v>0.5640794281470003</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5416063557397589</v>
+        <v>0.5239704973766827</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7461858415309727</v>
+        <v>0.7812099505954074</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5397118387854656</v>
+        <v>0.5377004503405097</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4874795486830766</v>
+        <v>0.5002554823119447</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8016556266023516</v>
+        <v>0.8048938268158623</v>
       </c>
     </row>
     <row r="28">
